--- a/FSCVA/testing.xlsx
+++ b/FSCVA/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicklausauen/Desktop/School - 16th/Senior Project/virtual_assistant/Best_Senior_Project/FSCVA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643CB91-90E1-B747-A880-DEA3E3284A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEC3E1C-201E-9A4E-8898-2F63AE8841B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{873E931C-B0B5-5545-B3A4-79196CD8E536}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>get_weather</t>
   </si>
@@ -546,6 +546,33 @@
   </si>
   <si>
     <t>google the scp foundation</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Nitwit! Blubber! Oddment! Tweak</t>
+  </si>
+  <si>
+    <t>osteoporosis</t>
+  </si>
+  <si>
+    <t>the cake is a lie</t>
+  </si>
+  <si>
+    <t>remember; licking doorknobs is illegal on other planets</t>
+  </si>
+  <si>
+    <t>figure it out</t>
+  </si>
+  <si>
+    <t>kick the ball</t>
+  </si>
+  <si>
+    <t>ponder that for a moment</t>
+  </si>
+  <si>
+    <t>should we vote on it?</t>
   </si>
 </sst>
 </file>
@@ -900,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77214D8-39E6-4145-A9FC-AB6165C9285C}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,9 +949,10 @@
     <col min="12" max="12" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,8 +995,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1011,8 +1042,11 @@
       <c r="N2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1055,8 +1089,11 @@
       <c r="N3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1099,8 +1136,11 @@
       <c r="N4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1140,8 +1180,11 @@
       <c r="N5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1181,8 +1224,11 @@
       <c r="N6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1222,8 +1268,11 @@
       <c r="N7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1254,8 +1303,11 @@
       <c r="M8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1286,8 +1338,11 @@
       <c r="M9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1313,7 +1368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1336,7 +1391,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1353,7 +1408,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -1370,7 +1425,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1387,7 +1442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1401,7 +1456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/FSCVA/testing.xlsx
+++ b/FSCVA/testing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicklausauen/Desktop/School - 16th/Senior Project/virtual_assistant/Best_Senior_Project/FSCVA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEC3E1C-201E-9A4E-8898-2F63AE8841B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B58FD-EBFC-F740-80F1-4048C65C8CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{873E931C-B0B5-5545-B3A4-79196CD8E536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="214">
   <si>
     <t>get_weather</t>
   </si>
@@ -573,6 +573,111 @@
   </si>
   <si>
     <t>should we vote on it?</t>
+  </si>
+  <si>
+    <t>flip 2 coins</t>
+  </si>
+  <si>
+    <t>roll a 12 sided die</t>
+  </si>
+  <si>
+    <t>define iridocyclitis</t>
+  </si>
+  <si>
+    <t>how's my schedule look</t>
+  </si>
+  <si>
+    <t>how's my schedule looking</t>
+  </si>
+  <si>
+    <t>kicking? I wanna do some kicking</t>
+  </si>
+  <si>
+    <t>welcome to the salty spitoon, how tough are ya?</t>
+  </si>
+  <si>
+    <t>I'm trying, but my cLEATS are stUCK in your coRNEAS</t>
+  </si>
+  <si>
+    <t>check my assignments for me</t>
+  </si>
+  <si>
+    <t>kill the timer</t>
+  </si>
+  <si>
+    <t>am I broke or am I allowed to eat today</t>
+  </si>
+  <si>
+    <t>google september by earth wind and fire</t>
+  </si>
+  <si>
+    <t>you like krabby pattys don't you squidward</t>
+  </si>
+  <si>
+    <t>he's just standing there…MENACINGLY</t>
+  </si>
+  <si>
+    <t>what's autodefenestration mean</t>
+  </si>
+  <si>
+    <t>oh yeah, flip a coin</t>
+  </si>
+  <si>
+    <t>it's time for the time</t>
+  </si>
+  <si>
+    <t>is it snowy today</t>
+  </si>
+  <si>
+    <t>6 + 600</t>
+  </si>
+  <si>
+    <t>8008 / 4</t>
+  </si>
+  <si>
+    <t>do a coin flip</t>
+  </si>
+  <si>
+    <t>let's flip a coin</t>
+  </si>
+  <si>
+    <t>flip a coin right now</t>
+  </si>
+  <si>
+    <t>search how to solve a rubik's cube</t>
+  </si>
+  <si>
+    <t>look up where pineapple comes from</t>
+  </si>
+  <si>
+    <t>define duckie</t>
+  </si>
+  <si>
+    <t>Frankie!</t>
+  </si>
+  <si>
+    <t>19 - 21</t>
+  </si>
+  <si>
+    <t>set an alarm for 12PM</t>
+  </si>
+  <si>
+    <t>roll a d4 for me</t>
+  </si>
+  <si>
+    <t>is it too late to go back to sleep?</t>
+  </si>
+  <si>
+    <t>google no time like the present</t>
+  </si>
+  <si>
+    <t>how busy am I today</t>
+  </si>
+  <si>
+    <t>search for falling in reverse on google</t>
+  </si>
+  <si>
+    <t>google when jac'o'lanterns were first made</t>
   </si>
 </sst>
 </file>
@@ -929,18 +1034,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77214D8-39E6-4145-A9FC-AB6165C9285C}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
@@ -1156,6 +1261,9 @@
       <c r="E5" t="s">
         <v>70</v>
       </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
       <c r="G5" t="s">
         <v>135</v>
       </c>
@@ -1200,6 +1308,9 @@
       <c r="E6" t="s">
         <v>119</v>
       </c>
+      <c r="F6" t="s">
+        <v>194</v>
+      </c>
       <c r="G6" t="s">
         <v>29</v>
       </c>
@@ -1225,7 +1336,7 @@
         <v>160</v>
       </c>
       <c r="O6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1244,6 +1355,9 @@
       <c r="E7" t="s">
         <v>116</v>
       </c>
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
@@ -1269,7 +1383,7 @@
         <v>158</v>
       </c>
       <c r="O7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1288,12 +1402,21 @@
       <c r="E8" t="s">
         <v>134</v>
       </c>
+      <c r="F8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>180</v>
+      </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>139</v>
       </c>
+      <c r="J8" t="s">
+        <v>181</v>
+      </c>
       <c r="K8" t="s">
         <v>30</v>
       </c>
@@ -1303,8 +1426,11 @@
       <c r="M8" t="s">
         <v>155</v>
       </c>
+      <c r="N8" t="s">
+        <v>190</v>
+      </c>
       <c r="O8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1323,12 +1449,21 @@
       <c r="E9" t="s">
         <v>92</v>
       </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>208</v>
+      </c>
       <c r="H9" t="s">
         <v>63</v>
       </c>
       <c r="I9" t="s">
         <v>142</v>
       </c>
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
       <c r="K9" t="s">
         <v>39</v>
       </c>
@@ -1338,14 +1473,20 @@
       <c r="M9" t="s">
         <v>148</v>
       </c>
+      <c r="N9" t="s">
+        <v>202</v>
+      </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
       <c r="C10" t="s">
         <v>84</v>
       </c>
@@ -1355,9 +1496,15 @@
       <c r="E10" t="s">
         <v>133</v>
       </c>
+      <c r="H10" t="s">
+        <v>207</v>
+      </c>
       <c r="I10" t="s">
         <v>72</v>
       </c>
+      <c r="J10" t="s">
+        <v>204</v>
+      </c>
       <c r="K10" t="s">
         <v>56</v>
       </c>
@@ -1366,12 +1513,21 @@
       </c>
       <c r="M10" t="s">
         <v>150</v>
+      </c>
+      <c r="N10" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1381,6 +1537,9 @@
       <c r="E11" t="s">
         <v>45</v>
       </c>
+      <c r="I11" t="s">
+        <v>188</v>
+      </c>
       <c r="K11" t="s">
         <v>65</v>
       </c>
@@ -1389,6 +1548,12 @@
       </c>
       <c r="M11" t="s">
         <v>156</v>
+      </c>
+      <c r="N11" t="s">
+        <v>210</v>
+      </c>
+      <c r="O11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1407,6 +1572,15 @@
       <c r="L12" t="s">
         <v>123</v>
       </c>
+      <c r="M12" t="s">
+        <v>197</v>
+      </c>
+      <c r="N12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1424,6 +1598,15 @@
       <c r="L13" t="s">
         <v>126</v>
       </c>
+      <c r="M13" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" t="s">
+        <v>213</v>
+      </c>
+      <c r="O13" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1441,6 +1624,12 @@
       <c r="L14" t="s">
         <v>89</v>
       </c>
+      <c r="M14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O14" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1452,8 +1641,14 @@
       <c r="E15" t="s">
         <v>62</v>
       </c>
+      <c r="K15" t="s">
+        <v>182</v>
+      </c>
       <c r="L15" t="s">
         <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1466,6 +1661,9 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
+      <c r="K16" t="s">
+        <v>183</v>
+      </c>
       <c r="L16" t="s">
         <v>130</v>
       </c>
@@ -1480,6 +1678,9 @@
       <c r="E17" t="s">
         <v>102</v>
       </c>
+      <c r="K17" t="s">
+        <v>211</v>
+      </c>
       <c r="L17" t="s">
         <v>113</v>
       </c>
@@ -1513,6 +1714,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
@@ -1526,6 +1730,12 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
